--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4014826.410790112</v>
+        <v>4012574.331078906</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7740905403536</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>258.3345018800783</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.47550198365466</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7098141956743</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.8087673531387</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>87.28121759428616</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>109.3961154903006</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>11.03304066191151</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786498004</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>168.5177247035053</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>78.58997872771708</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>164.3975590884503</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722624</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.120807446024</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>134.0367616438387</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,16 +1613,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576192</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>87.82057320600153</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428072</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1847,16 +1847,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0006820737981</v>
+        <v>117.4765410832857</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696395</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S22" t="n">
-        <v>133.605923711194</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>102.1557845699794</v>
       </c>
       <c r="H25" t="n">
-        <v>90.69284018412959</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>102.7111628144459</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>54.10799870228453</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>237.1280940168098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>133.605923711194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2372717916091</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>92.87435055577284</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1904.487375535336</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1535.524858594925</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.259159988174</v>
+        <v>950.1045973369964</v>
       </c>
       <c r="E2" t="n">
-        <v>791.4709073899301</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>380.4850026003225</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>369.4529564857231</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4340,13 +4340,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535336</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>480.687070124138</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1252.934624811415</v>
+        <v>662.3355349543777</v>
       </c>
       <c r="Y4" t="n">
-        <v>1032.142045667885</v>
+        <v>662.3355349543777</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,22 +4562,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2336.581195395918</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>958.57194323589</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>789.6357603079831</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>639.5191208956473</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>491.6060273132542</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>344.7160798153438</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>177.0132431900628</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W7" t="n">
-        <v>1361.01298720966</v>
+        <v>834.3470688139735</v>
       </c>
       <c r="X7" t="n">
-        <v>1361.01298720966</v>
+        <v>606.3575179159561</v>
       </c>
       <c r="Y7" t="n">
-        <v>1140.22040806613</v>
+        <v>385.564938772426</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3155.385897666236</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2824.323010322666</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>936.573581468608</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080127</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986301</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1002.061314410584</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>968.8505838746323</v>
       </c>
       <c r="W10" t="n">
-        <v>1450.843444452132</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="X10" t="n">
-        <v>1222.853893554115</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="Y10" t="n">
-        <v>1002.061314410584</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1842.070412183399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,31 +5279,31 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1018.438627038651</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330922</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y16" t="n">
-        <v>1200.087091868891</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>576.8388927589099</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>407.9027098310028</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310027</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660705</v>
+        <v>768.5380889459566</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>599.6019060180495</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>449.4852666057136</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2244.961901336507</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2244.961901336507</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.202186474818</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W22" t="n">
-        <v>1411.785016437858</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X22" t="n">
-        <v>1183.79546553984</v>
+        <v>1170.979132919727</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963103</v>
+        <v>950.1865537761964</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>924.8344286397182</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2104.342122433612</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E25" t="n">
-        <v>414.4022433768874</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="F25" t="n">
-        <v>267.5122958789771</v>
+        <v>197.0043242297693</v>
       </c>
       <c r="G25" t="n">
-        <v>267.5122958789771</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.3929232910542</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
         <v>549.6145409888043</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.041388121294</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,10 +7166,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2226.142357820936</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2226.142357820936</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624481</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>152.1477127454055</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>79.42624789262631</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909865066</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.83129810813921</v>
+        <v>62.35543909865174</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.2672314396054</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>47.42036229045056</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228956</v>
       </c>
       <c r="H25" t="n">
-        <v>49.60187266209429</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>64.53565828418198</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>15.00954930701818</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>15.00954930701842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>28.78901421003548</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>55.74112246243952</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>616338.9411377263</v>
+        <v>616338.9411377262</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>616338.9411377262</v>
+        <v>616338.9411377261</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>616338.9411377262</v>
+        <v>616338.9411377261</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900065</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900063</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="F4" t="n">
+        <v>11776.97621680561</v>
+      </c>
+      <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>11776.97621680578</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="J4" t="n">
         <v>11776.97621680584</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680584</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="N4" t="n">
+        <v>11776.97621680588</v>
+      </c>
+      <c r="O4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11776.97621680583</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706600.9274128601</v>
+        <v>-706600.9274128597</v>
       </c>
       <c r="C6" t="n">
         <v>622143.8183147326</v>
       </c>
       <c r="D6" t="n">
-        <v>622143.8183147328</v>
+        <v>622143.8183147326</v>
       </c>
       <c r="E6" t="n">
-        <v>368834.6318419382</v>
+        <v>368799.8939165017</v>
       </c>
       <c r="F6" t="n">
-        <v>694247.0936492936</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="G6" t="n">
-        <v>694247.0936492932</v>
+        <v>694212.3557238581</v>
       </c>
       <c r="H6" t="n">
-        <v>694247.0936492935</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="I6" t="n">
-        <v>694247.0936492932</v>
+        <v>694212.355723858</v>
       </c>
       <c r="J6" t="n">
-        <v>476715.8912520159</v>
+        <v>476681.1533265801</v>
       </c>
       <c r="K6" t="n">
-        <v>694247.0936492932</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="L6" t="n">
-        <v>694247.0936492932</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="M6" t="n">
-        <v>609192.0657137815</v>
+        <v>609157.3277883455</v>
       </c>
       <c r="N6" t="n">
-        <v>694247.0936492935</v>
+        <v>694212.3557238574</v>
       </c>
       <c r="O6" t="n">
-        <v>694247.0936492935</v>
+        <v>694212.3557238574</v>
       </c>
       <c r="P6" t="n">
-        <v>694247.0936492934</v>
+        <v>694212.3557238578</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>261.1562795319082</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>36.27326250724218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.3564781982826</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.999841193362812</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.9250743103418</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>261.9597511231269</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>35.35889942402019</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>241.1046026619165</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224614</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>82.47744725539667</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>88.65684237091075</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>87.74008423537771</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.107776353646526e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28333,16 +28333,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.08671525121538e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28567,16 +28567,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28977,55 +28977,55 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-6.748885970628905e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>469.5567819573398</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104064</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>165.2255134509767</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>750.6021172789107</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>351.6082511035024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>231.5286848890172</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,28 +33260,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>383.9182138639289</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.586862646002</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>556.532545233504</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>327.4227480353215</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707313</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35820,10 +35820,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295323</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>619.2604051955774</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295323</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>217.6338436891722</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295323</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>92.97430510914305</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>249.9438064495987</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>425.1908331501707</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
